--- a/data/annotated/Labels - https___doi.org_10.1093_ehr_ceac260.xlsx
+++ b/data/annotated/Labels - https___doi.org_10.1093_ehr_ceac260.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quenzer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quenzer/Desktop/Data Science/3. Semester 2023 WS/Data Analysis Project/A-blessing-or-a-curse-Analysis-of-scholarly-citations/data/annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D922E08-2B5F-F747-914C-84C2680AF047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B10374-D989-6D4A-A9C3-69D60D2BAD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Subset</t>
   </si>
   <si>
-    <t>Author/s</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -810,6 +807,9 @@
   </si>
   <si>
     <t>The 20% Strategy: Building a Core Vote for the Liberal Democrats</t>
+  </si>
+  <si>
+    <t>Authors</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:K224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1096,13 +1096,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="2"/>
       <c r="I1" s="2"/>
@@ -1116,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -1149,10 +1149,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1282,10 +1282,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -1316,10 +1316,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1350,10 +1350,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1436,10 +1436,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1453,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -1470,10 +1470,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1487,10 +1487,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1504,10 +1504,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -1555,10 +1555,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -1589,10 +1589,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -1665,10 +1665,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -1683,10 +1683,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -1717,10 +1717,10 @@
         <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -1768,10 +1768,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -1833,10 +1833,10 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -1850,10 +1850,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -1867,10 +1867,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -1884,10 +1884,10 @@
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -1918,10 +1918,10 @@
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -1935,10 +1935,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -1952,10 +1952,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -1969,10 +1969,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -2034,10 +2034,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
@@ -2051,10 +2051,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
@@ -2068,10 +2068,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -2085,10 +2085,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2">
         <v>0</v>
@@ -2102,10 +2102,10 @@
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E61" s="2">
         <v>0</v>
@@ -2119,10 +2119,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -2136,10 +2136,10 @@
         <v>2</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
@@ -2167,10 +2167,10 @@
         <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -2184,10 +2184,10 @@
         <v>1</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E66" s="2">
         <v>0</v>
@@ -2201,10 +2201,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E67" s="2">
         <v>0</v>
@@ -2218,10 +2218,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E68" s="2">
         <v>0</v>
@@ -2235,10 +2235,10 @@
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -2297,10 +2297,10 @@
         <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
@@ -2314,10 +2314,10 @@
         <v>1</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         <v>1</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E76" s="2">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
@@ -2379,10 +2379,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
@@ -2407,10 +2407,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -2424,10 +2424,10 @@
         <v>2</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
@@ -2441,10 +2441,10 @@
         <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E82" s="2">
         <v>0</v>
@@ -2458,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E83" s="2">
         <v>0</v>
@@ -2472,10 +2472,10 @@
         <v>1</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
@@ -2489,10 +2489,10 @@
         <v>1</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E85" s="2">
         <v>0</v>
@@ -2506,10 +2506,10 @@
         <v>2</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E86" s="2">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
@@ -2540,10 +2540,10 @@
         <v>1</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E88" s="2">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E89" s="2">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E90" s="2">
         <v>0</v>
@@ -2591,10 +2591,10 @@
         <v>1</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2">
         <v>0</v>
@@ -2622,10 +2622,10 @@
         <v>1</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E93" s="2">
         <v>0</v>
@@ -2639,10 +2639,10 @@
         <v>1</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E94" s="2">
         <v>0</v>
@@ -2656,10 +2656,10 @@
         <v>1</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E95" s="2">
         <v>0</v>
@@ -2673,10 +2673,10 @@
         <v>1</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E96" s="2">
         <v>1</v>
@@ -2691,10 +2691,10 @@
         <v>1</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="E97" s="2">
         <v>0</v>
@@ -2708,10 +2708,10 @@
         <v>2</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E98" s="2">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>3</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="E99" s="2">
         <v>0</v>
@@ -2742,10 +2742,10 @@
         <v>1</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E100" s="2">
         <v>0</v>
@@ -2759,10 +2759,10 @@
         <v>2</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E101" s="2">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="E102" s="2">
         <v>0</v>
@@ -2793,10 +2793,10 @@
         <v>2</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E103" s="2">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2">
         <v>0</v>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E105" s="2">
         <v>0</v>
@@ -2838,10 +2838,10 @@
         <v>1</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E106" s="2">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>1</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2">
         <v>1</v>
@@ -2873,10 +2873,10 @@
         <v>1</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="E108" s="2">
         <v>0</v>
@@ -2890,10 +2890,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="E109" s="2">
         <v>0</v>
@@ -2907,10 +2907,10 @@
         <v>1</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E110" s="2">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>1</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E111" s="2">
         <v>0</v>
@@ -2941,10 +2941,10 @@
         <v>1</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="E112" s="2">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>1</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E113" s="2">
         <v>0</v>
@@ -2975,10 +2975,10 @@
         <v>1</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E114" s="2">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>1</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E115" s="2">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E116" s="2">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E117" s="2">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="C118" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="E118" s="2">
         <v>0</v>
@@ -3060,10 +3060,10 @@
         <v>2</v>
       </c>
       <c r="C119" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E119" s="2">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>3</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E120" s="2">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>1</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="E121" s="2">
         <v>0</v>
@@ -3111,10 +3111,10 @@
         <v>2</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E122" s="2">
         <v>0</v>
@@ -3128,10 +3128,10 @@
         <v>1</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E123" s="2">
         <v>0</v>
@@ -3145,10 +3145,10 @@
         <v>1</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E124" s="2">
         <v>0</v>
@@ -3162,10 +3162,10 @@
         <v>2</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E125" s="2">
         <v>0</v>
@@ -3179,10 +3179,10 @@
         <v>3</v>
       </c>
       <c r="C126" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E126" s="2">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E127" s="2">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>1</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E128" s="2">
         <v>0</v>
@@ -3227,10 +3227,10 @@
         <v>1</v>
       </c>
       <c r="C129" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="E129" s="2">
         <v>0</v>
@@ -3244,10 +3244,10 @@
         <v>1</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E130" s="2">
         <v>0</v>
@@ -3261,10 +3261,10 @@
         <v>1</v>
       </c>
       <c r="C131" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E131" s="2">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>1</v>
       </c>
       <c r="C132" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="E132" s="2">
         <v>0</v>
@@ -3295,10 +3295,10 @@
         <v>1</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E133" s="2">
         <v>0</v>
@@ -3309,10 +3309,10 @@
         <v>99</v>
       </c>
       <c r="C134" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E134" s="2">
         <v>0</v>
@@ -3323,10 +3323,10 @@
         <v>100</v>
       </c>
       <c r="C135" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E135" s="2">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E136" s="2">
         <v>0</v>
@@ -3354,10 +3354,10 @@
         <v>1</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E137" s="2">
         <v>0</v>
@@ -3371,10 +3371,10 @@
         <v>1</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E138" s="2">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>1</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E139" s="2">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>2</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E140" s="2">
         <v>0</v>
@@ -3422,10 +3422,10 @@
         <v>1</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E141" s="2">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>1</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E142" s="2">
         <v>0</v>
@@ -3456,10 +3456,10 @@
         <v>1</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E143" s="2">
         <v>0</v>
@@ -3473,10 +3473,10 @@
         <v>1</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E144" s="2">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>1</v>
       </c>
       <c r="C145" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E145" s="2">
         <v>0</v>
@@ -3507,10 +3507,10 @@
         <v>1</v>
       </c>
       <c r="C146" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="E146" s="2">
         <v>0</v>
@@ -3524,10 +3524,10 @@
         <v>1</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E147" s="2">
         <v>0</v>
@@ -3541,10 +3541,10 @@
         <v>1</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E148" s="2">
         <v>0</v>
@@ -3558,10 +3558,10 @@
         <v>1</v>
       </c>
       <c r="C149" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E149" s="2">
         <v>0</v>
@@ -3575,10 +3575,10 @@
         <v>1</v>
       </c>
       <c r="C150" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E150" s="2">
         <v>0</v>
@@ -3592,10 +3592,10 @@
         <v>1</v>
       </c>
       <c r="C151" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E151" s="2">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E152" s="2">
         <v>0</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="C153" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="E153" s="2">
         <v>0</v>
@@ -3640,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E154" s="2">
         <v>0</v>
@@ -3654,10 +3654,10 @@
         <v>2</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E155" s="2">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>3</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E156" s="2">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>4</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E157" s="2">
         <v>0</v>
@@ -3699,7 +3699,7 @@
         <v>5</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E158" s="2">
         <v>0</v>
@@ -3713,10 +3713,10 @@
         <v>6</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="E159" s="2">
         <v>0</v>
@@ -3730,10 +3730,10 @@
         <v>1</v>
       </c>
       <c r="C160" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="E160" s="2">
         <v>0</v>
@@ -3747,10 +3747,10 @@
         <v>1</v>
       </c>
       <c r="C161" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="E161" s="2">
         <v>0</v>
@@ -3764,10 +3764,10 @@
         <v>1</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E162" s="2">
         <v>0</v>
@@ -3781,7 +3781,7 @@
         <v>2</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E163" s="2">
         <v>0</v>
@@ -3795,10 +3795,10 @@
         <v>3</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E164" s="2">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E165" s="2">
         <v>0</v>
@@ -3826,10 +3826,10 @@
         <v>1</v>
       </c>
       <c r="C166" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E166" s="2">
         <v>0</v>
@@ -3843,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E167" s="2">
         <v>0</v>
@@ -3857,10 +3857,10 @@
         <v>1</v>
       </c>
       <c r="C168" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E168" s="2">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E169" s="2">
         <v>0</v>
@@ -3888,10 +3888,10 @@
         <v>1</v>
       </c>
       <c r="C170" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E170" s="2">
         <v>0</v>
@@ -3905,10 +3905,10 @@
         <v>1</v>
       </c>
       <c r="C171" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="E171" s="2">
         <v>1</v>
@@ -3923,10 +3923,10 @@
         <v>1</v>
       </c>
       <c r="C172" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E172" s="2">
         <v>0</v>
@@ -3940,10 +3940,10 @@
         <v>1</v>
       </c>
       <c r="C173" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="E173" s="2">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>2</v>
       </c>
       <c r="C174" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="E174" s="2">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         <v>3</v>
       </c>
       <c r="C175" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="E175" s="2">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>1</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E176" s="2">
         <v>1</v>
@@ -4009,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E177" s="2">
         <v>0</v>
@@ -4023,10 +4023,10 @@
         <v>1</v>
       </c>
       <c r="C178" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E178" s="2">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>1</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E179" s="2">
         <v>0</v>
@@ -4057,10 +4057,10 @@
         <v>1</v>
       </c>
       <c r="C180" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="E180" s="2">
         <v>0</v>
@@ -4074,10 +4074,10 @@
         <v>1</v>
       </c>
       <c r="C181" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="E181" s="2">
         <v>0</v>
@@ -4091,10 +4091,10 @@
         <v>1</v>
       </c>
       <c r="C182" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="E182" s="2">
         <v>0</v>
@@ -4108,10 +4108,10 @@
         <v>1</v>
       </c>
       <c r="C183" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="E183" s="2">
         <v>0</v>
@@ -4125,10 +4125,10 @@
         <v>2</v>
       </c>
       <c r="C184" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="E184" s="2">
         <v>0</v>
@@ -4142,10 +4142,10 @@
         <v>3</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="E185" s="2">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E186" s="2">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E187" s="2">
         <v>0</v>
@@ -4187,10 +4187,10 @@
         <v>1</v>
       </c>
       <c r="C188" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E188" s="2">
         <v>0</v>
@@ -4204,10 +4204,10 @@
         <v>1</v>
       </c>
       <c r="C189" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="E189" s="2">
         <v>0</v>
@@ -4221,10 +4221,10 @@
         <v>1</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E190" s="2">
         <v>0</v>
@@ -4238,10 +4238,10 @@
         <v>1</v>
       </c>
       <c r="C191" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="E191" s="2">
         <v>0</v>
@@ -4255,10 +4255,10 @@
         <v>2</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E192" s="2">
         <v>0</v>
@@ -4272,10 +4272,10 @@
         <v>3</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="E193" s="2">
         <v>0</v>
@@ -4289,10 +4289,10 @@
         <v>1</v>
       </c>
       <c r="C194" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="E194" s="2">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E195" s="2">
         <v>0</v>
@@ -4320,10 +4320,10 @@
         <v>1</v>
       </c>
       <c r="C196" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="E196" s="2">
         <v>0</v>
@@ -4337,10 +4337,10 @@
         <v>1</v>
       </c>
       <c r="C197" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="E197" s="2">
         <v>0</v>
@@ -4354,10 +4354,10 @@
         <v>1</v>
       </c>
       <c r="C198" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="E198" s="2">
         <v>0</v>
@@ -4371,10 +4371,10 @@
         <v>1</v>
       </c>
       <c r="C199" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="E199" s="2">
         <v>0</v>
@@ -4388,10 +4388,10 @@
         <v>1</v>
       </c>
       <c r="C200" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="E200" s="2">
         <v>1</v>
@@ -4406,10 +4406,10 @@
         <v>1</v>
       </c>
       <c r="C201" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="E201" s="2">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E202" s="2">
         <v>0</v>
@@ -4437,10 +4437,10 @@
         <v>1</v>
       </c>
       <c r="C203" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="E203" s="2">
         <v>0</v>
@@ -4454,10 +4454,10 @@
         <v>1</v>
       </c>
       <c r="C204" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="E204" s="2">
         <v>0</v>
@@ -4471,10 +4471,10 @@
         <v>1</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E205" s="2">
         <v>0</v>
@@ -4488,10 +4488,10 @@
         <v>1</v>
       </c>
       <c r="C206" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E206" s="2">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>1</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E207" s="2">
         <v>0</v>
@@ -4522,10 +4522,10 @@
         <v>1</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E208" s="2">
         <v>0</v>
@@ -4539,10 +4539,10 @@
         <v>1</v>
       </c>
       <c r="C209" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E209" s="2">
         <v>0</v>
@@ -4556,10 +4556,10 @@
         <v>1</v>
       </c>
       <c r="C210" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E210" s="2">
         <v>0</v>
@@ -4573,10 +4573,10 @@
         <v>1</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E211" s="2">
         <v>0</v>
@@ -4590,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D212" s="2">
         <v>1979</v>
@@ -4607,10 +4607,10 @@
         <v>1</v>
       </c>
       <c r="C213" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E213" s="2">
         <v>0</v>
@@ -4624,10 +4624,10 @@
         <v>1</v>
       </c>
       <c r="C214" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="E214" s="2">
         <v>1</v>
@@ -4642,10 +4642,10 @@
         <v>1</v>
       </c>
       <c r="C215" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="E215" s="2">
         <v>0</v>
@@ -4659,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E216" s="2">
         <v>0</v>
@@ -4673,10 +4673,10 @@
         <v>1</v>
       </c>
       <c r="C217" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E217" s="2">
         <v>0</v>
@@ -4690,10 +4690,10 @@
         <v>1</v>
       </c>
       <c r="C218" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="E218" s="2">
         <v>0</v>
@@ -4707,10 +4707,10 @@
         <v>1</v>
       </c>
       <c r="C219" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="E219" s="2">
         <v>0</v>
@@ -4724,10 +4724,10 @@
         <v>1</v>
       </c>
       <c r="C220" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="E220" s="2">
         <v>0</v>
@@ -4741,10 +4741,10 @@
         <v>1</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E221" s="2">
         <v>0</v>
@@ -4758,10 +4758,10 @@
         <v>1</v>
       </c>
       <c r="C222" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="E222" s="2">
         <v>0</v>
@@ -4775,10 +4775,10 @@
         <v>1</v>
       </c>
       <c r="C223" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E223" s="2">
         <v>0</v>
@@ -4792,10 +4792,10 @@
         <v>1</v>
       </c>
       <c r="C224" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="E224" s="2">
         <v>0</v>
